--- a/bill_power.xlsx
+++ b/bill_power.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>компонент</t>
   </si>
@@ -215,9 +215,6 @@
     <t>C0603</t>
   </si>
   <si>
-    <t>С3</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Керамический конденсатор </t>
     </r>
@@ -260,6 +257,12 @@
   </si>
   <si>
     <t>J4, J5</t>
+  </si>
+  <si>
+    <t>С3, C5, C6, C7, C8</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -621,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -782,10 +785,10 @@
         <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>29</v>
@@ -797,13 +800,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>29</v>
@@ -815,19 +818,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="5"/>
     </row>
